--- a/DC-SCP.xlsx
+++ b/DC-SCP.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -186,21 +186,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="d\.hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -233,21 +243,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="d\.hh:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -590,37 +585,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>530</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>536</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>306</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>238</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>259</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>271</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>75</c:v>
@@ -715,28 +710,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>532</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>534</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>516</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>303</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>244</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>265</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>263</c:v>
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,6 +926,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="130550383"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:dTable>
         <c:showHorzBorder val="1"/>
@@ -1661,14 +1672,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DCFOG" displayName="DCFOG" ref="A2:F14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="DCFOG" displayName="DCFOG" ref="A2:F14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="15">
   <tableColumns count="6">
-    <tableColumn id="2" name="Instance" headerRowDxfId="9" dataDxfId="17"/>
-    <tableColumn id="6" name="Size" headerRowDxfId="10" dataDxfId="16"/>
-    <tableColumn id="5" name="Duration" headerRowDxfId="11" dataDxfId="15"/>
-    <tableColumn id="4" name="Result" headerRowDxfId="12" dataDxfId="14"/>
-    <tableColumn id="9" name="Column1" headerRowDxfId="2" dataDxfId="3"/>
-    <tableColumn id="10" name="Column2" headerRowDxfId="0" dataDxfId="1"/>
+    <tableColumn id="2" name="Instance" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="6" name="Size" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="5" name="Duration" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="4" name="Result" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="9" name="Column1" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="10" name="Column2" headerRowDxfId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1678,10 +1689,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DCGRASP" displayName="DCGRASP" ref="A1:D9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
-    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="5" uniqueName="5" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" uniqueName="3" name="Column3" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="4" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1965,39 +1976,39 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
     <col min="4" max="5" width="10.19921875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2009,16 +2020,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>2.6620370370370372E-4</v>
+        <v>7.2800925925925938E-6</v>
       </c>
       <c r="D2" s="1">
-        <v>530</v>
-      </c>
-      <c r="E2" s="5">
         <v>532</v>
       </c>
-      <c r="F2" s="6">
-        <v>4.2415080439814817E-4</v>
+      <c r="E2" s="4">
+        <v>587</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3.1766203703703703E-4</v>
       </c>
       <c r="G2" s="1">
         <v>512</v>
@@ -2032,16 +2043,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>1.3888888888888889E-4</v>
+        <v>6.967592592592593E-6</v>
       </c>
       <c r="D3" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E3" s="3">
-        <v>534</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4.2957506597222223E-4</v>
+        <v>588</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3.295138888888889E-4</v>
       </c>
       <c r="G3" s="1">
         <v>516</v>
@@ -2055,16 +2066,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>2.3148148148148149E-4</v>
+        <v>5.2256944444444447E-5</v>
       </c>
       <c r="D4" s="1">
-        <v>512</v>
-      </c>
-      <c r="E4" s="5">
-        <v>516</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3.1490605439814815E-4</v>
+        <v>514</v>
+      </c>
+      <c r="E4" s="4">
+        <v>557</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.5641550925925927E-3</v>
       </c>
       <c r="G4" s="1">
         <v>494</v>
@@ -2078,16 +2089,16 @@
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>5.9027777777777778E-4</v>
+        <v>1.0173611111111111E-5</v>
       </c>
       <c r="D5" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E5" s="3">
-        <v>225</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4.3153740740740741E-4</v>
+        <v>243</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6.5219907407407414E-4</v>
       </c>
       <c r="G5" s="1">
         <v>213</v>
@@ -2101,16 +2112,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>2.7777777777777778E-4</v>
+        <v>1.7893518518518517E-5</v>
       </c>
       <c r="D6" s="1">
-        <v>306</v>
-      </c>
-      <c r="E6" s="5">
-        <v>303</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5.3964593055555552E-4</v>
+        <v>313</v>
+      </c>
+      <c r="E6" s="4">
+        <v>338</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6.6226851851851847E-5</v>
       </c>
       <c r="G6" s="1">
         <v>293</v>
@@ -2124,16 +2135,16 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>7.7546296296296293E-4</v>
+        <v>2.8715277777777775E-5</v>
       </c>
       <c r="D7" s="1">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E7" s="3">
-        <v>244</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.9689972349537037E-3</v>
+        <v>280</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.262650462962963E-3</v>
       </c>
       <c r="G7" s="1">
         <v>234</v>
@@ -2147,16 +2158,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0185185185185184E-3</v>
+        <v>5.2604166666666667E-5</v>
       </c>
       <c r="D8" s="1">
-        <v>259</v>
-      </c>
-      <c r="E8" s="5">
-        <v>265</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1.6705792268518519E-3</v>
+        <v>262</v>
+      </c>
+      <c r="E8" s="4">
+        <v>288</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.7329861111111112E-4</v>
       </c>
       <c r="G8" s="1">
         <v>252</v>
@@ -2170,16 +2181,16 @@
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>9.837962962962962E-4</v>
+        <v>5.2280092592592597E-5</v>
       </c>
       <c r="D9" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E9" s="1">
-        <v>263</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.8287037037037037E-3</v>
+        <v>270</v>
+      </c>
+      <c r="F9" s="9">
+        <v>3.1466435185185183E-4</v>
       </c>
       <c r="G9" s="1">
         <v>232</v>
@@ -2193,13 +2204,17 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>4.2592592592592595E-3</v>
+        <v>8.0266203703703719E-5</v>
       </c>
       <c r="D10" s="1">
-        <v>271</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="E10" s="1">
+        <v>296</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2.9199074074074077E-4</v>
+      </c>
       <c r="G10" s="1">
         <v>253</v>
       </c>
@@ -2212,13 +2227,17 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0300925925925926E-3</v>
+        <v>9.1134259259259269E-5</v>
       </c>
       <c r="D11" s="1">
-        <v>85</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="E11" s="1">
+        <v>84</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1.2485416666666667E-3</v>
+      </c>
       <c r="G11" s="1">
         <v>80</v>
       </c>
@@ -2231,13 +2250,17 @@
         <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>1.0995370370370371E-3</v>
+        <v>4.6041666666666663E-5</v>
       </c>
       <c r="D12" s="1">
-        <v>83</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E12" s="1">
+        <v>87</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.0191898148148148E-3</v>
+      </c>
       <c r="G12" s="1">
         <v>76</v>
       </c>
@@ -2250,13 +2273,17 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>1.1805555555555556E-3</v>
+        <v>1.0052083333333333E-4</v>
       </c>
       <c r="D13" s="1">
         <v>75</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>74</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.6796759259259258E-3</v>
+      </c>
       <c r="G13" s="1">
         <v>69</v>
       </c>
@@ -2269,13 +2296,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>1.2268518518518518E-3</v>
+        <v>5.0219907407407407E-5</v>
       </c>
       <c r="D14" s="1">
         <v>86</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>89</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.2404166666666668E-3</v>
+      </c>
       <c r="G14" s="1">
         <v>79</v>
       </c>
